--- a/liste des taches.xlsx
+++ b/liste des taches.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aurélie GUICHARDON\STUDI\CDA - Evaluations\BLOC 2\ECF Final\Docs de W\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8985D0B-9C6D-4412-8E35-46B49901B624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDA9F32-CAB8-454C-80F1-1DB5EB75F2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC0E4E81-8540-46DB-9C1C-D7C62E38B7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Taches" sheetId="1" r:id="rId1"/>
-    <sheet name="Taches et détails" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>EPIC</t>
   </si>
@@ -45,9 +44,6 @@
     <t>HomePage</t>
   </si>
   <si>
-    <t>Reservation</t>
-  </si>
-  <si>
     <t>Administration</t>
   </si>
   <si>
@@ -63,39 +59,18 @@
     <t>Page d'accueil</t>
   </si>
   <si>
-    <t>Form contact</t>
-  </si>
-  <si>
     <t>Taches</t>
   </si>
   <si>
-    <t>Création Github</t>
-  </si>
-  <si>
     <t>Initialisation Technique</t>
   </si>
   <si>
-    <t xml:space="preserve">Création BDD </t>
-  </si>
-  <si>
-    <t>Vérification disponibilité domaine</t>
-  </si>
-  <si>
-    <t>Création ReadMe</t>
-  </si>
-  <si>
     <t>Page d'inscription</t>
   </si>
   <si>
-    <t>Créer form d'inscription</t>
-  </si>
-  <si>
     <t>Page de connexion</t>
   </si>
   <si>
-    <t>Créer form de connexion</t>
-  </si>
-  <si>
     <t>Page compte client</t>
   </si>
   <si>
@@ -103,47 +78,13 @@
   </si>
   <si>
     <t>Page de réservation</t>
-  </si>
-  <si>
-    <t>Créer form de réservation</t>
-  </si>
-  <si>
-    <t>Pages légales</t>
-  </si>
-  <si>
-    <t>Le site doit contenir les pages légales suivantes :
-- Mentions légales
-- Politique de confidentialité
-- Conditions générales de vente
-- Conditions générales d’utilisation
-- Gestion des cookies</t>
   </si>
   <si>
     <t xml:space="preserve">Accéder au site
 Naviguer sur la page </t>
   </si>
   <si>
-    <t>Doit permettre de contacter l’équipe</t>
-  </si>
-  <si>
-    <t>Détails</t>
-  </si>
-  <si>
-    <t>Le formulaire doit contenir les choix sur :
-Objet du message
-Civilité / Nom / Prénom
-Numéro de téléphone
-Mail
-Message adressé limité à 3000 caractères</t>
-  </si>
-  <si>
     <t>Accéder aux pages des mentions légales obligatoires</t>
-  </si>
-  <si>
-    <t>Créer un panneau d'administration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doit permettre de contacter les administrateurs // suppport // commercial </t>
   </si>
   <si>
     <t>Pouvoir réserver des billets</t>
@@ -169,6 +110,72 @@
   </si>
   <si>
     <t>Page contact</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>Doit permettre de contacter les administrateurs // suppport // commercial via un formulaire</t>
+  </si>
+  <si>
+    <t>Pages mentions légales</t>
+  </si>
+  <si>
+    <t>NavBar</t>
+  </si>
+  <si>
+    <t>Inscription</t>
+  </si>
+  <si>
+    <t>Accueil</t>
+  </si>
+  <si>
+    <t>Accéder à la page Accueil</t>
+  </si>
+  <si>
+    <t>Connexion</t>
+  </si>
+  <si>
+    <t>Accéder à la page Connexion</t>
+  </si>
+  <si>
+    <t>Accéder à la page Inscription</t>
+  </si>
+  <si>
+    <t>Billetterie</t>
+  </si>
+  <si>
+    <t>Accéder à la page Billetterie</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Accéder à la page d'administration</t>
+  </si>
+  <si>
+    <t>Réservations</t>
+  </si>
+  <si>
+    <t>Pouvoir consulter les réservations</t>
+  </si>
+  <si>
+    <t>Clients</t>
+  </si>
+  <si>
+    <t>Pouvoir consulter les comptes clients</t>
+  </si>
+  <si>
+    <t>Page d'informations</t>
+  </si>
+  <si>
+    <t>Pouvoir consulter les billets proposés</t>
+  </si>
+  <si>
+    <t>Page de paiement</t>
+  </si>
+  <si>
+    <t>Pouvoir finaliser la réservation avec un paiement sécurisé</t>
   </si>
 </sst>
 </file>
@@ -222,7 +229,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -250,24 +257,6 @@
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -282,25 +271,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8AD09C2-9410-4BD9-8E1E-609726AAD8B1}" name="Tableau1" displayName="Tableau1" ref="A1:C10" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:C10" xr:uid="{C8AD09C2-9410-4BD9-8E1E-609726AAD8B1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8AD09C2-9410-4BD9-8E1E-609726AAD8B1}" name="Tableau1" displayName="Tableau1" ref="A1:C19" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C19" xr:uid="{C8AD09C2-9410-4BD9-8E1E-609726AAD8B1}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{ED88AFBC-C909-4EA6-B372-BC5C97C71AED}" name="EPIC" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{C798E1CE-9F2D-404E-82F0-1A05C40B3F92}" name="US" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{CE42F3F0-B035-4E73-B87F-02AAEE2303F9}" name="Taches" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1DB26961-20A7-439B-A9B8-F528DC19AC29}" name="Tableau13" displayName="Tableau13" ref="A1:D13" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:D13" xr:uid="{C8AD09C2-9410-4BD9-8E1E-609726AAD8B1}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{CAF82D99-A48E-467D-AF77-61BBF77CF364}" name="EPIC" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{EDFAFFD7-05EF-44AD-94EF-0856BA11DF38}" name="US" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{98DF3317-1EA7-49DF-8E99-C6571A573EA1}" name="Taches" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{C7962687-DA1E-4916-86DD-D6E380EFF5C0}" name="Détails" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -603,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{573CFFFC-22DC-4AD5-B09B-CD41CB2BDACE}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,283 +598,208 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>25</v>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>29</v>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25830836-0CD1-4340-8B95-5C3C9B297D6C}">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="108" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.5546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
